--- a/NC State House/HD20/2016Results.xlsx
+++ b/NC State House/HD20/2016Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State House\HD20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70776C9B-C6CF-426B-A881-61CE1F0DCE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B7A37-83B9-4753-965D-5972983528B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:H44"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,13 +1096,14 @@
         <v>2442</v>
       </c>
       <c r="F2">
-        <v>1146.4480383127648</v>
+        <v>1146.4449568308785</v>
       </c>
       <c r="G2">
-        <v>1256.6109780806778</v>
+        <v>1256.9313096077485</v>
       </c>
       <c r="H2">
-        <v>2516.7803462884508</v>
+        <f>F2+G2</f>
+        <v>2403.3762664386268</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1123,13 +1124,14 @@
         <v>1977</v>
       </c>
       <c r="F3">
-        <v>669.93643396573952</v>
+        <v>660.73340782122898</v>
       </c>
       <c r="G3">
-        <v>1281.4012709522933</v>
+        <v>1288.7653542138271</v>
       </c>
       <c r="H3">
-        <v>2037.540845459569</v>
+        <f t="shared" ref="H3:H44" si="1">F3+G3</f>
+        <v>1949.4987620350562</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1150,13 +1152,14 @@
         <v>2105</v>
       </c>
       <c r="F4">
-        <v>865.00414440965187</v>
+        <v>860.61044184865409</v>
       </c>
       <c r="G4">
-        <v>1190.1106096887088</v>
+        <v>1193.2632203955914</v>
       </c>
       <c r="H4">
-        <v>2169.4605360103151</v>
+        <f t="shared" si="1"/>
+        <v>2053.8736622442457</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1177,13 +1180,14 @@
         <v>2030</v>
       </c>
       <c r="F5">
-        <v>809.79259532142203</v>
+        <v>804.68629761300144</v>
       </c>
       <c r="G5">
-        <v>1182.1090440228404</v>
+        <v>1186.0748877426058</v>
       </c>
       <c r="H5">
-        <v>2092.1638423282375</v>
+        <f t="shared" si="1"/>
+        <v>1990.7611853556073</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1204,13 +1208,14 @@
         <v>1364</v>
       </c>
       <c r="F6">
-        <v>535.03403941794068</v>
+        <v>531.27937023869981</v>
       </c>
       <c r="G6">
-        <v>812.21514090992821</v>
+        <v>815.36230378149696</v>
       </c>
       <c r="H6">
-        <v>1405.7692024313872</v>
+        <f t="shared" si="1"/>
+        <v>1346.6416740201967</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1231,13 +1236,14 @@
         <v>3444</v>
       </c>
       <c r="F7">
-        <v>1216.634334131516</v>
+        <v>1202.3691010665311</v>
       </c>
       <c r="G7">
-        <v>2166.991895376681</v>
+        <v>2178.0647938546035</v>
       </c>
       <c r="H7">
-        <v>3549.4641738810096</v>
+        <f t="shared" si="1"/>
+        <v>3380.4338949211347</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1258,13 +1264,14 @@
         <v>2639</v>
       </c>
       <c r="F8">
-        <v>988.6303739178486</v>
+        <v>979.70815642458092</v>
       </c>
       <c r="G8">
-        <v>1583.2417572296924</v>
+        <v>1589.6484209745054</v>
       </c>
       <c r="H8">
-        <v>2719.8129950267084</v>
+        <f t="shared" si="1"/>
+        <v>2569.3565773990863</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1285,13 +1292,14 @@
         <v>3449</v>
       </c>
       <c r="F9">
-        <v>1261.7151040707313</v>
+        <v>1248.9725545962417</v>
       </c>
       <c r="G9">
-        <v>2165.0586664210718</v>
+        <v>2176.0109845251791</v>
       </c>
       <c r="H9">
-        <v>3554.6172867931477</v>
+        <f t="shared" si="1"/>
+        <v>3424.983539121421</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1312,13 +1320,14 @@
         <v>3744</v>
       </c>
       <c r="F10">
-        <v>1467.4805304844353</v>
+        <v>1457.1346470289486</v>
       </c>
       <c r="G10">
-        <v>2208.9981580401545</v>
+        <v>2217.0871711136674</v>
       </c>
       <c r="H10">
-        <v>3858.65094860932</v>
+        <f t="shared" si="1"/>
+        <v>3674.221818142616</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1339,13 +1348,14 @@
         <v>1268</v>
       </c>
       <c r="F11">
-        <v>567.48325658500642</v>
+        <v>566.49086846114778</v>
       </c>
       <c r="G11">
-        <v>670.93313685761655</v>
+        <v>671.59565072178714</v>
       </c>
       <c r="H11">
-        <v>1306.8294345183274</v>
+        <f t="shared" si="1"/>
+        <v>1238.0865191829348</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1366,13 +1376,14 @@
         <v>2879</v>
       </c>
       <c r="F12">
-        <v>979.50733100018419</v>
+        <v>966.24493651599789</v>
       </c>
       <c r="G12">
-        <v>1846.4467673604715</v>
+        <v>1856.6436337996809</v>
       </c>
       <c r="H12">
-        <v>2967.162414809357</v>
+        <f t="shared" si="1"/>
+        <v>2822.8885703156789</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1393,13 +1404,14 @@
         <v>3656</v>
       </c>
       <c r="F13">
-        <v>1464.0589795542458</v>
+        <v>1455.0633824276281</v>
       </c>
       <c r="G13">
-        <v>2118.8229876588689</v>
+        <v>2125.6926559542803</v>
       </c>
       <c r="H13">
-        <v>3767.9561613556825</v>
+        <f t="shared" si="1"/>
+        <v>3580.7560383819082</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1420,13 +1432,14 @@
         <v>2899</v>
       </c>
       <c r="F14">
-        <v>1265.8304107570455</v>
+        <v>1262.4357745048246</v>
       </c>
       <c r="G14">
-        <v>1578.7138515380366</v>
+        <v>1581.4331836568076</v>
       </c>
       <c r="H14">
-        <v>2987.7748664579117</v>
+        <f t="shared" si="1"/>
+        <v>2843.8689581616322</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1447,13 +1460,14 @@
         <v>2784</v>
       </c>
       <c r="F15">
-        <v>1073.972702155093</v>
+        <v>1065.6656373793803</v>
       </c>
       <c r="G15">
-        <v>1641.1781175170381</v>
+        <v>1647.1550821983894</v>
       </c>
       <c r="H15">
-        <v>2869.2532694787251</v>
+        <f t="shared" si="1"/>
+        <v>2712.8207195777695</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1474,13 +1488,14 @@
         <v>2108</v>
       </c>
       <c r="F16">
-        <v>871.05260637318111</v>
+        <v>866.82423565261547</v>
       </c>
       <c r="G16">
-        <v>1154.1506723153436</v>
+        <v>1156.2946524659517</v>
       </c>
       <c r="H16">
-        <v>2172.5524037575983</v>
+        <f t="shared" si="1"/>
+        <v>2023.1188881185672</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1501,13 +1516,14 @@
         <v>4367</v>
       </c>
       <c r="F17">
-        <v>1688.5444649106648</v>
+        <v>1675.653062468258</v>
       </c>
       <c r="G17">
-        <v>2590.3178301713024</v>
+        <v>2600.122611051323</v>
       </c>
       <c r="H17">
-        <v>4500.7288174617797</v>
+        <f t="shared" si="1"/>
+        <v>4275.7756735195808</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1528,13 +1544,14 @@
         <v>2716</v>
       </c>
       <c r="F18">
-        <v>1354.8742309817646</v>
+        <v>1357.7139461655663</v>
       </c>
       <c r="G18">
-        <v>1274.2700313133173</v>
+        <v>1271.3079749137194</v>
       </c>
       <c r="H18">
-        <v>2799.1709338736414</v>
+        <f t="shared" si="1"/>
+        <v>2629.0219210792857</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1555,13 +1572,14 @@
         <v>4277</v>
       </c>
       <c r="F19">
-        <v>1660.0906060047892</v>
+        <v>1647.6909903504315</v>
       </c>
       <c r="G19">
-        <v>2544.11595137226</v>
+        <v>2553.9119011392731</v>
       </c>
       <c r="H19">
-        <v>4407.9727850432855</v>
+        <f t="shared" si="1"/>
+        <v>4201.6028914897051</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1582,13 +1600,14 @@
         <v>2578</v>
       </c>
       <c r="F20">
-        <v>938.64498065942166</v>
+        <v>928.9621736922295</v>
       </c>
       <c r="G20">
-        <v>1588.4271504881194</v>
+        <v>1595.8098489627787</v>
       </c>
       <c r="H20">
-        <v>2656.9450174986182</v>
+        <f t="shared" si="1"/>
+        <v>2524.7720226550082</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1609,13 +1628,14 @@
         <v>3309</v>
       </c>
       <c r="F21">
-        <v>1329.4535457727022</v>
+        <v>1321.466815642458</v>
       </c>
       <c r="G21">
-        <v>1918.1890771781175</v>
+        <v>1924.4193416706869</v>
       </c>
       <c r="H21">
-        <v>3410.3301252532697</v>
+        <f t="shared" si="1"/>
+        <v>3245.8861573131448</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1636,13 +1656,14 @@
         <v>4681</v>
       </c>
       <c r="F22">
-        <v>1916.6168170933875</v>
+        <v>1906.5990655154899</v>
       </c>
       <c r="G22">
-        <v>2655.5110517590715</v>
+        <v>2662.763795598768</v>
       </c>
       <c r="H22">
-        <v>4824.3443083440779</v>
+        <f t="shared" si="1"/>
+        <v>4569.3628611142576</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1663,13 +1684,14 @@
         <v>2767</v>
       </c>
       <c r="F23">
-        <v>1034.6980843617609</v>
+        <v>1025.2759776536311</v>
       </c>
       <c r="G23">
-        <v>1681.9510959661079</v>
+        <v>1689.25817345159</v>
       </c>
       <c r="H23">
-        <v>2851.732685577454</v>
+        <f t="shared" si="1"/>
+        <v>2714.5341511052211</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1690,13 +1712,14 @@
         <v>4685</v>
       </c>
       <c r="F24">
-        <v>2031.6814330447596</v>
+        <v>2025.6967800914169</v>
       </c>
       <c r="G24">
-        <v>2578.5644685945845</v>
+        <v>2583.6921364159275</v>
       </c>
       <c r="H24">
-        <v>4828.4667986737886</v>
+        <f t="shared" si="1"/>
+        <v>4609.3889165073442</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1717,13 +1740,14 @@
         <v>2197</v>
       </c>
       <c r="F25">
-        <v>867.49031129121386</v>
+        <v>861.64607414931436</v>
       </c>
       <c r="G25">
-        <v>1286.3391969055074</v>
+        <v>1290.8191635432515</v>
       </c>
       <c r="H25">
-        <v>2264.2778135936637</v>
+        <f t="shared" si="1"/>
+        <v>2152.465237692566</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1744,13 +1768,14 @@
         <v>1539</v>
       </c>
       <c r="F26">
-        <v>568.86098729047706</v>
+        <v>563.38397155916709</v>
       </c>
       <c r="G26">
-        <v>935.55212746362133</v>
+        <v>939.61776821167473</v>
       </c>
       <c r="H26">
-        <v>1586.128154356235</v>
+        <f t="shared" si="1"/>
+        <v>1503.0017397708418</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1771,13 +1796,14 @@
         <v>1422</v>
       </c>
       <c r="F27">
-        <v>1184.9709707128384</v>
+        <v>1203.4047333671915</v>
       </c>
       <c r="G27">
-        <v>210.98968502486645</v>
+        <v>197.16569562474487</v>
       </c>
       <c r="H27">
-        <v>1465.5453122121937</v>
+        <f t="shared" si="1"/>
+        <v>1400.5704289919363</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1798,13 +1824,14 @@
         <v>1098</v>
       </c>
       <c r="F28">
-        <v>695.73707865168535</v>
+        <v>702.15869984763833</v>
       </c>
       <c r="G28">
-        <v>397.66292134831463</v>
+        <v>393.30448658477752</v>
       </c>
       <c r="H28">
-        <v>1131.6235955056181</v>
+        <f t="shared" si="1"/>
+        <v>1095.4631864324158</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1825,13 +1852,14 @@
         <v>1312</v>
       </c>
       <c r="F29">
-        <v>748.19403205010133</v>
+        <v>752.90468257998975</v>
       </c>
       <c r="G29">
-        <v>524.52072204825936</v>
+        <v>520.64066500909189</v>
       </c>
       <c r="H29">
-        <v>1352.1768281451464</v>
+        <f t="shared" si="1"/>
+        <v>1273.5453475890818</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1852,13 +1880,14 @@
         <v>1388</v>
       </c>
       <c r="F30">
-        <v>935.42173512617421</v>
+        <v>945.53229050279322</v>
       </c>
       <c r="G30">
-        <v>407.5356419230061</v>
+        <v>399.46591457305078</v>
       </c>
       <c r="H30">
-        <v>1430.5041444096516</v>
+        <f t="shared" si="1"/>
+        <v>1344.998205075844</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1879,13 +1908,14 @@
         <v>2904</v>
       </c>
       <c r="F31">
-        <v>2242.911180696261</v>
+        <v>2274.2485322498728</v>
       </c>
       <c r="G31">
-        <v>605.78062258242767</v>
+        <v>582.25494489182461</v>
       </c>
       <c r="H31">
-        <v>2992.9279793700503</v>
+        <f t="shared" si="1"/>
+        <v>2856.5034771416977</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1906,13 +1936,14 @@
         <v>2390</v>
       </c>
       <c r="F32">
-        <v>1107.6080309449253</v>
+        <v>1107.0909294057897</v>
       </c>
       <c r="G32">
-        <v>1239.9165592190091</v>
+        <v>1240.500834972353</v>
       </c>
       <c r="H32">
-        <v>2463.1879720022107</v>
+        <f t="shared" si="1"/>
+        <v>2347.5917643781427</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1933,13 +1964,14 @@
         <v>1724</v>
       </c>
       <c r="F33">
-        <v>802.84947504144407</v>
+        <v>802.61503301168102</v>
       </c>
       <c r="G33">
-        <v>883.02265610609686</v>
+        <v>883.138011652503</v>
       </c>
       <c r="H33">
-        <v>1776.7933321053602</v>
+        <f t="shared" si="1"/>
+        <v>1685.753044664184</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1960,13 +1992,14 @@
         <v>1122</v>
       </c>
       <c r="F34">
-        <v>526.124774359919</v>
+        <v>526.1012087353987</v>
       </c>
       <c r="G34">
-        <v>564.98342236139251</v>
+        <v>564.79756559171699</v>
       </c>
       <c r="H34">
-        <v>1156.3585374838829</v>
+        <f t="shared" si="1"/>
+        <v>1090.8987743271157</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1987,13 +2020,14 @@
         <v>2674</v>
       </c>
       <c r="F35">
-        <v>1307.1957634923558</v>
+        <v>1309.0392280345352</v>
       </c>
       <c r="G35">
-        <v>1336.709154540431</v>
+        <v>1336.002968790589</v>
       </c>
       <c r="H35">
-        <v>2755.8847854116775</v>
+        <f t="shared" si="1"/>
+        <v>2645.0421968251239</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2014,13 +2048,14 @@
         <v>2718</v>
       </c>
       <c r="F36">
-        <v>1587.9065389574507</v>
+        <v>1599.0162722194007</v>
       </c>
       <c r="G36">
-        <v>1007.2967397310739</v>
+        <v>997.12442943555868</v>
       </c>
       <c r="H36">
-        <v>2801.2321790384972</v>
+        <f t="shared" si="1"/>
+        <v>2596.1407016549592</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2041,13 +2076,14 @@
         <v>2353</v>
       </c>
       <c r="F37">
-        <v>1910.010333394732</v>
+        <v>1938.7036668359572</v>
       </c>
       <c r="G37">
-        <v>366.42245349051393</v>
+        <v>344.01306267859127</v>
       </c>
       <c r="H37">
-        <v>2425.0549364523854</v>
+        <f t="shared" si="1"/>
+        <v>2282.7167295145482</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2068,13 +2104,14 @@
         <v>1681</v>
       </c>
       <c r="F38">
-        <v>998.15485356419231</v>
+        <v>1005.5989639410868</v>
       </c>
       <c r="G38">
-        <v>644.44842512433229</v>
+        <v>638.73470145099634</v>
       </c>
       <c r="H38">
-        <v>1732.4765610609688</v>
+        <f t="shared" si="1"/>
+        <v>1644.3336653920833</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2095,13 +2132,14 @@
         <v>2155</v>
       </c>
       <c r="F39">
-        <v>1666.811843801805</v>
+        <v>1690.1519146775013</v>
       </c>
       <c r="G39">
-        <v>443.7783201326211</v>
+        <v>426.16543585556832</v>
       </c>
       <c r="H39">
-        <v>2220.9916651316998</v>
+        <f t="shared" si="1"/>
+        <v>2116.3173505330697</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2122,13 +2160,14 @@
         <v>2353</v>
       </c>
       <c r="F40">
-        <v>1359.010333394732</v>
+        <v>1368.0702691721685</v>
       </c>
       <c r="G40">
-        <v>890.42245349051393</v>
+        <v>882.11110698779078</v>
       </c>
       <c r="H40">
-        <v>2425.0549364523854</v>
+        <f t="shared" si="1"/>
+        <v>2250.1813761599592</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2149,13 +2188,14 @@
         <v>2059</v>
       </c>
       <c r="F41">
-        <v>1902.2610609688709</v>
+        <v>1935.5967699339765</v>
       </c>
       <c r="G41">
-        <v>165.49631608030944</v>
+        <v>141.71284373028536</v>
       </c>
       <c r="H41">
-        <v>2122.0518972186405</v>
+        <f t="shared" si="1"/>
+        <v>2077.3096136642616</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2176,13 +2216,14 @@
         <v>2805</v>
       </c>
       <c r="F42">
-        <v>1475.3119358997974</v>
+        <v>1480.954189944134</v>
       </c>
       <c r="G42">
-        <v>1273.4585559034813</v>
+        <v>1269.2541655842949</v>
       </c>
       <c r="H42">
-        <v>2890.8963437097073</v>
+        <f t="shared" si="1"/>
+        <v>2750.2083555284289</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2203,13 +2244,14 @@
         <v>2841</v>
       </c>
       <c r="F43">
-        <v>1275.8934794621478</v>
+        <v>1273.8277298120872</v>
       </c>
       <c r="G43">
-        <v>1497.9393074230982</v>
+        <v>1499.2808104798307</v>
       </c>
       <c r="H43">
-        <v>2927.9987566771042</v>
+        <f t="shared" si="1"/>
+        <v>2773.108540291918</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2230,13 +2272,14 @@
         <v>1677</v>
       </c>
       <c r="F44">
-        <v>679.09023761282003</v>
+        <v>675.23226003047228</v>
       </c>
       <c r="G44">
-        <v>973.39500828881933</v>
+        <v>976.5863361413144</v>
       </c>
       <c r="H44">
-        <v>1728.3540707312579</v>
+        <f t="shared" si="1"/>
+        <v>1651.8185961717868</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2253,8 +2296,8 @@
         <v>121</v>
       </c>
       <c r="E45">
-        <f>SUM(E2:E44)</f>
-        <v>108580</v>
+        <f>B45+C45+D45</f>
+        <v>3325</v>
       </c>
       <c r="F45">
         <v>50979.000000000015</v>
@@ -2279,7 +2322,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,17 +2349,18 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>979.50733100018419</v>
+        <v>966.24493651599789</v>
       </c>
       <c r="C2">
-        <v>1846.4467673604715</v>
+        <v>1856.6436337996809</v>
       </c>
       <c r="D2">
-        <v>2967.162414809357</v>
+        <f t="shared" ref="D2:D17" si="0">B2+C2</f>
+        <v>2822.8885703156789</v>
       </c>
       <c r="E2" s="1">
         <f>(B2-C2)/D2</f>
-        <v>-0.29217795157869342</v>
+        <v>-0.31542112807666056</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2324,17 +2368,18 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1464.0589795542458</v>
+        <v>1455.0633824276281</v>
       </c>
       <c r="C3">
-        <v>2118.8229876588689</v>
+        <v>2125.6926559542803</v>
       </c>
       <c r="D3">
-        <v>3767.9561613556825</v>
+        <f t="shared" si="0"/>
+        <v>3580.7560383819082</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E18" si="0">(B3-C3)/D3</f>
-        <v>-0.1737716629561433</v>
+        <f t="shared" ref="E3:E18" si="1">(B3-C3)/D3</f>
+        <v>-0.18728706070400147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2342,17 +2387,18 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1265.8304107570455</v>
+        <v>1262.4357745048246</v>
       </c>
       <c r="C4">
-        <v>1578.7138515380366</v>
+        <v>1581.4331836568076</v>
       </c>
       <c r="D4">
-        <v>2987.7748664579117</v>
+        <f t="shared" si="0"/>
+        <v>2843.8689581616322</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.10472122390932452</v>
+        <f t="shared" si="1"/>
+        <v>-0.11217022086636268</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2360,17 +2406,18 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1688.5444649106648</v>
+        <v>1675.653062468258</v>
       </c>
       <c r="C5">
-        <v>2590.3178301713024</v>
+        <v>2600.122611051323</v>
       </c>
       <c r="D5">
-        <v>4500.7288174617797</v>
+        <f t="shared" si="0"/>
+        <v>4275.7756735195808</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.20036163071233418</v>
+        <f t="shared" si="1"/>
+        <v>-0.21621095660102604</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2378,17 +2425,18 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>938.64498065942166</v>
+        <v>928.9621736922295</v>
       </c>
       <c r="C6">
-        <v>1588.4271504881194</v>
+        <v>1595.8098489627787</v>
       </c>
       <c r="D6">
-        <v>2656.9450174986182</v>
+        <f t="shared" si="0"/>
+        <v>2524.7720226550082</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.24455988571432141</v>
+        <f t="shared" si="1"/>
+        <v>-0.26412193627260783</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2396,17 +2444,18 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1329.4535457727022</v>
+        <v>1321.466815642458</v>
       </c>
       <c r="C7">
-        <v>1918.1890771781175</v>
+        <v>1924.4193416706869</v>
       </c>
       <c r="D7">
-        <v>3410.3301252532697</v>
+        <f t="shared" si="0"/>
+        <v>3245.8861573131448</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.17263300319399214</v>
+        <f t="shared" si="1"/>
+        <v>-0.18575898747087805</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2414,17 +2463,18 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>1916.6168170933875</v>
+        <v>1906.5990655154899</v>
       </c>
       <c r="C8">
-        <v>2655.5110517590715</v>
+        <v>2662.763795598768</v>
       </c>
       <c r="D8">
-        <v>4824.3443083440779</v>
+        <f t="shared" si="0"/>
+        <v>4569.3628611142576</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.15315951504284409</v>
+        <f t="shared" si="1"/>
+        <v>-0.16548581346391131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2432,17 +2482,18 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>2031.6814330447596</v>
+        <v>2025.6967800914169</v>
       </c>
       <c r="C9">
-        <v>2578.5644685945845</v>
+        <v>2583.6921364159275</v>
       </c>
       <c r="D9">
-        <v>4828.4667986737886</v>
+        <f t="shared" si="0"/>
+        <v>4609.3889165073442</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.11326225453181837</v>
+        <f t="shared" si="1"/>
+        <v>-0.12105625418722932</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2450,17 +2501,18 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>867.49031129121386</v>
+        <v>861.64607414931436</v>
       </c>
       <c r="C10">
-        <v>1286.3391969055074</v>
+        <v>1290.8191635432515</v>
       </c>
       <c r="D10">
-        <v>2264.2778135936637</v>
+        <f t="shared" si="0"/>
+        <v>2152.465237692566</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.18498122584592797</v>
+        <f t="shared" si="1"/>
+        <v>-0.19938676912339312</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2468,17 +2520,18 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>568.86098729047706</v>
+        <v>563.38397155916709</v>
       </c>
       <c r="C11">
-        <v>935.55212746362133</v>
+        <v>939.61776821167473</v>
       </c>
       <c r="D11">
-        <v>1586.128154356235</v>
+        <f t="shared" si="0"/>
+        <v>1503.0017397708418</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.23118632574930489</v>
+        <f t="shared" si="1"/>
+        <v>-0.25032159757171729</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2486,17 +2539,18 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>1107.6080309449253</v>
+        <v>1107.0909294057897</v>
       </c>
       <c r="C12">
-        <v>1239.9165592190091</v>
+        <v>1240.500834972353</v>
       </c>
       <c r="D12">
-        <v>2463.1879720022107</v>
+        <f t="shared" si="0"/>
+        <v>2347.5917643781427</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.3714344896924907E-2</v>
+        <f t="shared" si="1"/>
+        <v>-5.6828409262162538E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2504,17 +2558,18 @@
         <v>43</v>
       </c>
       <c r="B13">
-        <v>802.84947504144407</v>
+        <v>802.61503301168102</v>
       </c>
       <c r="C13">
-        <v>883.02265610609686</v>
+        <v>883.138011652503</v>
       </c>
       <c r="D13">
-        <v>1776.7933321053602</v>
+        <f t="shared" si="0"/>
+        <v>1685.753044664184</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.5122400909538472E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.776677040311253E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2522,17 +2577,18 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>526.124774359919</v>
+        <v>526.1012087353987</v>
       </c>
       <c r="C14">
-        <v>564.98342236139251</v>
+        <v>564.79756559171699</v>
       </c>
       <c r="D14">
-        <v>1156.3585374838829</v>
+        <f t="shared" si="0"/>
+        <v>1090.8987743271157</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.3604324906032976E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.5471995905565885E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2540,17 +2596,18 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>1307.1957634923558</v>
+        <v>1309.0392280345352</v>
       </c>
       <c r="C15">
-        <v>1336.709154540431</v>
+        <v>1336.002968790589</v>
       </c>
       <c r="D15">
-        <v>2755.8847854116775</v>
+        <f t="shared" si="0"/>
+        <v>2645.0421968251239</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.0709225292836912E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.0194068279295759E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2558,17 +2615,18 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>1587.9065389574507</v>
+        <v>1599.0162722194007</v>
       </c>
       <c r="C16">
-        <v>1007.2967397310739</v>
+        <v>997.12442943555868</v>
       </c>
       <c r="D16">
-        <v>2801.2321790384972</v>
+        <f t="shared" si="0"/>
+        <v>2596.1407016549592</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20726943077801818</v>
+        <f t="shared" si="1"/>
+        <v>0.23184099475045963</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2576,17 +2634,18 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>679.09023761282003</v>
+        <v>675.23226003047228</v>
       </c>
       <c r="C17">
-        <v>973.39500828881933</v>
+        <v>976.5863361413144</v>
       </c>
       <c r="D17">
-        <v>1728.3540707312579</v>
+        <f t="shared" si="0"/>
+        <v>1651.8185961717868</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.17028037001207769</v>
+        <f t="shared" si="1"/>
+        <v>-0.18243775485350072</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2595,19 +2654,19 @@
       </c>
       <c r="B18">
         <f>SUM(B2:B17)</f>
-        <v>19061.464081783019</v>
+        <v>18986.246968004063</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:D18" si="1">SUM(C2:C17)</f>
-        <v>25102.208049364523</v>
+        <f t="shared" ref="C18:D18" si="2">SUM(C2:C17)</f>
+        <v>25159.16428544922</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>46475.925354577266</v>
+        <f t="shared" si="2"/>
+        <v>44145.411253453269</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.12997576533431132</v>
+        <f t="shared" si="1"/>
+        <v>-0.13983146021688225</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2622,7 +2681,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2646,14 +2705,14 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.29217795157869342</v>
+        <v>-0.31542112807666056</v>
       </c>
       <c r="C2" s="1">
         <v>-0.51062155782848151</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>0.21844360624978809</v>
+        <v>0.19520042975182095</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2661,14 +2720,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.1737716629561433</v>
+        <v>-0.18728706070400147</v>
       </c>
       <c r="C3" s="1">
         <v>-0.27785693929894556</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D18" si="0">B3-C3</f>
-        <v>0.10408527634280226</v>
+        <v>9.0569878594944087E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2676,14 +2735,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.10472122390932452</v>
+        <v>-0.11217022086636268</v>
       </c>
       <c r="C4" s="1">
         <v>-0.19579865239793895</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>9.1077428488614429E-2</v>
+        <v>8.3628431531576272E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2691,14 +2750,14 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.20036163071233418</v>
+        <v>-0.21621095660102604</v>
       </c>
       <c r="C5" s="1">
         <v>-0.25882352941176473</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>5.8461898699430553E-2</v>
+        <v>4.2612572810738686E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2706,14 +2765,14 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.24455988571432141</v>
+        <v>-0.26412193627260783</v>
       </c>
       <c r="C6" s="1">
         <v>-0.33845555339428129</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>9.3895667679959882E-2</v>
+        <v>7.4333617121673468E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2721,14 +2780,14 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.17263300319399214</v>
+        <v>-0.18575898747087805</v>
       </c>
       <c r="C7" s="1">
         <v>-0.33845555339428129</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.16582255020028916</v>
+        <v>0.15269656592340325</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,14 +2795,14 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.15315951504284409</v>
+        <v>-0.16548581346391131</v>
       </c>
       <c r="C8" s="1">
         <v>-0.25033677593174675</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>9.7177260888902661E-2</v>
+        <v>8.4850962467835439E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2751,14 +2810,14 @@
         <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.11326225453181837</v>
+        <v>-0.12105625418722932</v>
       </c>
       <c r="C9" s="1">
         <v>-0.17449069973427811</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>6.1228445202459736E-2</v>
+        <v>5.3434445547048792E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2766,14 +2825,14 @@
         <v>45</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.18498122584592797</v>
+        <v>-0.19938676912339312</v>
       </c>
       <c r="C10" s="1">
         <v>-0.2706630336058129</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>8.5681807759884931E-2</v>
+        <v>7.1276264482419777E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2781,14 +2840,14 @@
         <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.23118632574930489</v>
+        <v>-0.25032159757171729</v>
       </c>
       <c r="C11" s="1">
         <v>-0.23520710059171598</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>4.0207748424110901E-3</v>
+        <v>-1.5114496980001307E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2796,14 +2855,14 @@
         <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>-5.3714344896924907E-2</v>
+        <v>-5.6828409262162538E-2</v>
       </c>
       <c r="C12" s="1">
         <v>-0.10676625659050967</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>5.3051911693584766E-2</v>
+        <v>4.9937847328347135E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2811,14 +2870,14 @@
         <v>43</v>
       </c>
       <c r="B13" s="1">
-        <v>-4.5122400909538472E-2</v>
+        <v>-4.776677040311253E-2</v>
       </c>
       <c r="C13" s="1">
         <v>-9.9025974025974031E-2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>5.3903573116435559E-2</v>
+        <v>5.1259203622861502E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2826,14 +2885,14 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>-3.3604324906032976E-2</v>
+        <v>-3.5471995905565885E-2</v>
       </c>
       <c r="C14" s="1">
         <v>-7.3608617594254938E-2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>4.0004292688221962E-2</v>
+        <v>3.8136621688689053E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2841,14 +2900,14 @@
         <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>-1.0709225292836912E-2</v>
+        <v>-1.0194068279295759E-2</v>
       </c>
       <c r="C15" s="1">
         <v>-5.7466918714555768E-2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>4.6757693421718857E-2</v>
+        <v>4.7272850435260007E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2856,14 +2915,14 @@
         <v>30</v>
       </c>
       <c r="B16" s="1">
-        <v>0.20726943077801818</v>
+        <v>0.23184099475045963</v>
       </c>
       <c r="C16" s="1">
         <v>0.15725949591764288</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>5.0009934860375305E-2</v>
+        <v>7.4581498832816756E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2871,14 +2930,14 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.17028037001207769</v>
+        <v>-0.18243775485350072</v>
       </c>
       <c r="C17" s="1">
         <v>-0.2994588093806374</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>0.12917843936855972</v>
+        <v>0.11702105452713668</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2886,14 +2945,14 @@
         <v>47</v>
       </c>
       <c r="B18" s="1">
-        <v>-0.12997576533431132</v>
+        <v>-0.13983146021688225</v>
       </c>
       <c r="C18" s="1">
         <v>-0.21299622039110735</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>8.3020455056796033E-2</v>
+        <v>7.3164760174225102E-2</v>
       </c>
     </row>
   </sheetData>
